--- a/medicine/Premiers secours et secourisme/Diplôme_d'État_d'ambulancier/Diplôme_d'État_d'ambulancier.xlsx
+++ b/medicine/Premiers secours et secourisme/Diplôme_d'État_d'ambulancier/Diplôme_d'État_d'ambulancier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dipl%C3%B4me_d%27%C3%89tat_d%27ambulancier</t>
+          <t>Diplôme_d'État_d'ambulancier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 En France, l'accès à la profession d'ambulancier est règlementée par l'obtention du diplôme d’État d’ambulancier. L'admission en Institut de formation d'ambulanciers (IFA) se fait d'abord sur dossier puis lors d'un entretien de motivation.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dipl%C3%B4me_d%27%C3%89tat_d%27ambulancier</t>
+          <t>Diplôme_d'État_d'ambulancier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Admission</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L'admission se fait après la validation de trois épreuves :
 un stage d'orientation professionnelle d'une durée de 70 heures (dispensable par l’exercice du métier d'auxiliaire ambulancier pendant un mois) ;
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dipl%C3%B4me_d%27%C3%89tat_d%27ambulancier</t>
+          <t>Diplôme_d'État_d'ambulancier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,13 +559,49 @@
           <t>Programme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Depuis 2022, la formation se compose de 23 semaines de cours :
 16 semaines de cours théoriques et pratiques (556 heures)
-7 semaines de stages en milieu professionnel (245 heures)
-Modules
-L'enseignement est dispensé sous forme d'unités d'enseignement, appelées "Modules" :
+7 semaines de stages en milieu professionnel (245 heures)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Diplôme_d'État_d'ambulancier</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dipl%C3%B4me_d%27%C3%89tat_d%27ambulancier</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Programme</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Modules</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'enseignement est dispensé sous forme d'unités d'enseignement, appelées "Modules" :
 Module 1 : Relation et communication avec les patients et leur entourage
 Module 2 : Accompagnement du patient dans son installation et ses déplacements
 Module 3 : Mise en œuvre des soins d'hygiène et de confort adaptés et réajustement
@@ -561,9 +611,43 @@
 Module 7 : Conduite du véhicule adapté au transport sanitaire terrestre dans le respect des règles de circulation et de sécurité routière et de l'itinéraire adapté à l'état de santé du patient
 Module 8 : Entretien du matériel et des installations du véhicule adapté au transport sanitaire terrestre et prévention des risques associés
 Module 9 : Traitement des informations
-Module 10 : Travail en équipe pluriprofessionnelle, qualité et gestion des risques
-Stages
-Sept semaines de stages doivent être effectuées : 
+Module 10 : Travail en équipe pluriprofessionnelle, qualité et gestion des risques</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Diplôme_d'État_d'ambulancier</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dipl%C3%B4me_d%27%C3%89tat_d%27ambulancier</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Programme</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Stages</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Sept semaines de stages doivent être effectuées : 
 cinq semaines en milieu hospitalier dont :
 trois en court et moyen séjour (EHPAD, psychiatrie, soins de suite et réadaptation),
 une en service d'urgences (ou 2 semaines si aucun stage en SMUR n'a été trouvé),
